--- a/kvision/ksample/mytable/BaiduOCRConverter_Excel/011_74306.xlsx
+++ b/kvision/ksample/mytable/BaiduOCRConverter_Excel/011_74306.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -61,11 +61,91 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -74,6 +154,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,821 +532,821 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>病名</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>发病例数</t>
         </is>
       </c>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>死亡人数</t>
         </is>
       </c>
-      <c r="E1" s="3" t="n"/>
+      <c r="E1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" s="5" t="n"/>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>总计</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>3064073</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>3063049</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>19642</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>23174</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>鼠疫</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>霍乱</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>传染性非典型肺炎</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>艾滋病</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>57191</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>61170</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>15251</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>18780</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>病毒性肝炎</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>1283523</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>1280015</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>573</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>531</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>脊髓灰质炎</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>人感染高致病性禽流感</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>麻疹</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>5941</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>3940</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>流行性出血热</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>11262</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>11966</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>狂犬病</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>516</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>422</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>流行性乙型脑炎</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>1147</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>1800</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>登革热</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>5893</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>5136</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>炭疽</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>318</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>细菌性和阿米巴性痢疾</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>109368</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>91152</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>肺结核</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>835193</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>823342</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>2823</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>3149</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>伤寒和副伤寒</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>10791</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>10843</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>流行性脑脊髓膜炎</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>百日咳</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>10390</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>22057</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>白喉</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>新生儿破伤风</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>猩红热</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>74369</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>78864</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>布鲁氏菌病</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>38554</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>37947</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>淋病</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>138855</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>133156</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>梅毒</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>475860</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>494867</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>钩端螺旋体病</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="n"/>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>血吸虫病</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>1186</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>疟疾</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>269</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>2518</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>人感染H7N9禽流感</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>689</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/kvision/ksample/mytable/BaiduOCRConverter_Excel/011_74306.xlsx
+++ b/kvision/ksample/mytable/BaiduOCRConverter_Excel/011_74306.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -141,11 +141,91 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -158,6 +238,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,821 +616,821 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>病名</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>发病例数</t>
         </is>
       </c>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>死亡人数</t>
         </is>
       </c>
-      <c r="E1" s="5" t="n"/>
+      <c r="E1" s="7" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>总计</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>3064073</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>3063049</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>19642</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>23174</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>鼠疫</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>霍乱</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>传染性非典型肺炎</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>艾滋病</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>57191</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>61170</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>15251</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>18780</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>病毒性肝炎</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>1283523</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>1280015</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>573</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>531</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>脊髓灰质炎</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>人感染高致病性禽流感</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>麻疹</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>5941</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>3940</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>流行性出血热</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>11262</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>11966</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>97</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>狂犬病</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>516</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>422</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>502</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>410</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>流行性乙型脑炎</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>1147</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>1800</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>登革热</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>5893</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>5136</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>炭疽</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>318</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>细菌性和阿米巴性痢疾</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>109368</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>91152</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>肺结核</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>835193</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>823342</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>2823</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>3149</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>伤寒和副伤寒</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>10791</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>10843</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>流行性脑脊髓膜炎</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>118</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>百日咳</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>10390</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>22057</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>白喉</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>新生儿破伤风</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>猩红热</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>74369</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>78864</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>布鲁氏菌病</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="6" t="inlineStr">
         <is>
           <t>38554</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>37947</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>淋病</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>138855</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>133156</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>梅毒</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>475860</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>494867</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>钩端螺旋体病</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>201</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E28" s="4" t="n"/>
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>血吸虫病</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>1186</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>疟疾</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="6" t="inlineStr">
         <is>
           <t>269</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>2518</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>人感染H7N9禽流感</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>689</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
